--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H2">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I2">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J2">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7618441652338</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N2">
-        <v>2.7618441652338</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P2">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q2">
-        <v>26.47232653359936</v>
+        <v>27.33354709235489</v>
       </c>
       <c r="R2">
-        <v>26.47232653359936</v>
+        <v>246.001923831194</v>
       </c>
       <c r="S2">
-        <v>0.4062440372377952</v>
+        <v>0.3541165249581643</v>
       </c>
       <c r="T2">
-        <v>0.4062440372377952</v>
+        <v>0.3541165249581641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H3">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I3">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J3">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.415942362925928</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N3">
-        <v>0.415942362925928</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P3">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q3">
-        <v>3.98681511040285</v>
+        <v>1.761925935104889</v>
       </c>
       <c r="R3">
-        <v>3.98681511040285</v>
+        <v>15.857333415944</v>
       </c>
       <c r="S3">
-        <v>0.0611816216498779</v>
+        <v>0.02282642231777952</v>
       </c>
       <c r="T3">
-        <v>0.0611816216498779</v>
+        <v>0.02282642231777951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.08530406217165</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H4">
-        <v>9.08530406217165</v>
+        <v>29.137298</v>
       </c>
       <c r="I4">
-        <v>0.4430564614259928</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J4">
-        <v>0.4430564614259928</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7618441652338</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N4">
-        <v>2.7618441652338</v>
+        <v>2.073382</v>
       </c>
       <c r="O4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P4">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q4">
-        <v>25.09219401348371</v>
+        <v>6.712527689092888</v>
       </c>
       <c r="R4">
-        <v>25.09219401348371</v>
+        <v>60.412749201836</v>
       </c>
       <c r="S4">
-        <v>0.385064538481487</v>
+        <v>0.08696335572238538</v>
       </c>
       <c r="T4">
-        <v>0.385064538481487</v>
+        <v>0.08696335572238535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H5">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.415942362925928</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N5">
-        <v>0.415942362925928</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O5">
-        <v>0.1308905929457767</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P5">
-        <v>0.1308905929457767</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q5">
-        <v>3.778962839520208</v>
+        <v>25.68007718465499</v>
       </c>
       <c r="R5">
-        <v>3.778962839520208</v>
+        <v>231.1206946618949</v>
       </c>
       <c r="S5">
-        <v>0.05799192294450586</v>
+        <v>0.3326951918300774</v>
       </c>
       <c r="T5">
-        <v>0.05799192294450586</v>
+        <v>0.3326951918300773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.274644341744623</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H6">
-        <v>0.274644341744623</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J6">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.7618441652338</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N6">
-        <v>2.7618441652338</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.8691094070542233</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P6">
-        <v>0.8691094070542233</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q6">
-        <v>0.7585248727618648</v>
+        <v>1.65534293278</v>
       </c>
       <c r="R6">
-        <v>0.7585248727618648</v>
+        <v>14.89808639501999</v>
       </c>
       <c r="S6">
-        <v>0.01164031450975636</v>
+        <v>0.02144559888219058</v>
       </c>
       <c r="T6">
-        <v>0.01164031450975636</v>
+        <v>0.02144559888219057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.274644341744623</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H7">
-        <v>0.274644341744623</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J7">
-        <v>0.01339338225461196</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.415942362925928</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N7">
-        <v>0.415942362925928</v>
+        <v>2.073382</v>
       </c>
       <c r="O7">
-        <v>0.1308905929457767</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P7">
-        <v>0.1308905929457767</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q7">
-        <v>0.1142362164694946</v>
+        <v>6.306471259569999</v>
       </c>
       <c r="R7">
-        <v>0.1142362164694946</v>
+        <v>56.75824133612999</v>
       </c>
       <c r="S7">
-        <v>0.001753067744855603</v>
+        <v>0.08170273984718548</v>
       </c>
       <c r="T7">
-        <v>0.001753067744855603</v>
+        <v>0.08170273984718548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.319477951252761</v>
+        <v>0.318184</v>
       </c>
       <c r="H8">
-        <v>0.319477951252761</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I8">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J8">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7618441652338</v>
+        <v>2.814284333333333</v>
       </c>
       <c r="N8">
-        <v>2.7618441652338</v>
+        <v>8.442852999999999</v>
       </c>
       <c r="O8">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964763</v>
       </c>
       <c r="P8">
-        <v>0.8691094070542233</v>
+        <v>0.7633363087964762</v>
       </c>
       <c r="Q8">
-        <v>0.8823483155882864</v>
+        <v>0.8954602463173333</v>
       </c>
       <c r="R8">
-        <v>0.8823483155882864</v>
+        <v>8.059142216855999</v>
       </c>
       <c r="S8">
-        <v>0.0135405077267992</v>
+        <v>0.01160102893315178</v>
       </c>
       <c r="T8">
-        <v>0.0135405077267992</v>
+        <v>0.01160102893315178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.319477951252761</v>
+        <v>0.318184</v>
       </c>
       <c r="H9">
-        <v>0.319477951252761</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I9">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J9">
-        <v>0.01557975050884982</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.415942362925928</v>
+        <v>0.1814093333333333</v>
       </c>
       <c r="N9">
-        <v>0.415942362925928</v>
+        <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963387</v>
       </c>
       <c r="P9">
-        <v>0.1308905929457767</v>
+        <v>0.04920481176963386</v>
       </c>
       <c r="Q9">
-        <v>0.1328844139468079</v>
+        <v>0.05772154731733333</v>
       </c>
       <c r="R9">
-        <v>0.1328844139468079</v>
+        <v>0.519493925856</v>
       </c>
       <c r="S9">
-        <v>0.00203924278205062</v>
+        <v>0.0007478046549230844</v>
       </c>
       <c r="T9">
-        <v>0.00203924278205062</v>
+        <v>0.0007478046549230843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24152897667064</v>
+        <v>0.318184</v>
       </c>
       <c r="H10">
-        <v>1.24152897667064</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I10">
-        <v>0.06054474692287248</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J10">
-        <v>0.06054474692287248</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7618441652338</v>
+        <v>0.6911273333333333</v>
       </c>
       <c r="N10">
-        <v>2.7618441652338</v>
+        <v>2.073382</v>
       </c>
       <c r="O10">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="P10">
-        <v>0.8691094070542233</v>
+        <v>0.1874588794338899</v>
       </c>
       <c r="Q10">
-        <v>3.428909560186498</v>
+        <v>0.2199056594293333</v>
       </c>
       <c r="R10">
-        <v>3.428909560186498</v>
+        <v>1.979150934864</v>
       </c>
       <c r="S10">
-        <v>0.05262000909838571</v>
+        <v>0.002848961668700866</v>
       </c>
       <c r="T10">
-        <v>0.05262000909838571</v>
+        <v>0.002848961668700866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.353022</v>
+      </c>
+      <c r="H11">
+        <v>1.059066</v>
+      </c>
+      <c r="I11">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J11">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P11">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q11">
+        <v>0.993504283922</v>
+      </c>
+      <c r="R11">
+        <v>8.941538555297999</v>
+      </c>
+      <c r="S11">
+        <v>0.01287122682485326</v>
+      </c>
+      <c r="T11">
+        <v>0.01287122682485325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.353022</v>
+      </c>
+      <c r="H12">
+        <v>1.059066</v>
+      </c>
+      <c r="I12">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J12">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P12">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q12">
+        <v>0.06404148567199999</v>
+      </c>
+      <c r="R12">
+        <v>0.576373371048</v>
+      </c>
+      <c r="S12">
+        <v>0.0008296818661222976</v>
+      </c>
+      <c r="T12">
+        <v>0.0008296818661222972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.24152897667064</v>
-      </c>
-      <c r="H11">
-        <v>1.24152897667064</v>
-      </c>
-      <c r="I11">
-        <v>0.06054474692287248</v>
-      </c>
-      <c r="J11">
-        <v>0.06054474692287248</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="N11">
-        <v>0.415942362925928</v>
-      </c>
-      <c r="O11">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="P11">
-        <v>0.1308905929457767</v>
-      </c>
-      <c r="Q11">
-        <v>0.5164044961973954</v>
-      </c>
-      <c r="R11">
-        <v>0.5164044961973954</v>
-      </c>
-      <c r="S11">
-        <v>0.00792473782448677</v>
-      </c>
-      <c r="T11">
-        <v>0.00792473782448677</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.353022</v>
+      </c>
+      <c r="H13">
+        <v>1.059066</v>
+      </c>
+      <c r="I13">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="J13">
+        <v>0.01686180347577968</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.073382</v>
+      </c>
+      <c r="O13">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P13">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q13">
+        <v>0.243983153468</v>
+      </c>
+      <c r="R13">
+        <v>2.195848381212</v>
+      </c>
+      <c r="S13">
+        <v>0.003160894784804129</v>
+      </c>
+      <c r="T13">
+        <v>0.003160894784804129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.427651</v>
+      </c>
+      <c r="H14">
+        <v>4.282953</v>
+      </c>
+      <c r="I14">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J14">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.814284333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.442852999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.7633363087964763</v>
+      </c>
+      <c r="P14">
+        <v>0.7633363087964762</v>
+      </c>
+      <c r="Q14">
+        <v>4.017815842767666</v>
+      </c>
+      <c r="R14">
+        <v>36.160342584909</v>
+      </c>
+      <c r="S14">
+        <v>0.05205233625022967</v>
+      </c>
+      <c r="T14">
+        <v>0.05205233625022965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.427651</v>
+      </c>
+      <c r="H15">
+        <v>4.282953</v>
+      </c>
+      <c r="I15">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J15">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1814093333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.5442279999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.04920481176963387</v>
+      </c>
+      <c r="P15">
+        <v>0.04920481176963386</v>
+      </c>
+      <c r="Q15">
+        <v>0.2589892161426666</v>
+      </c>
+      <c r="R15">
+        <v>2.330902945284</v>
+      </c>
+      <c r="S15">
+        <v>0.003355304048618399</v>
+      </c>
+      <c r="T15">
+        <v>0.003355304048618397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.427651</v>
+      </c>
+      <c r="H16">
+        <v>4.282953</v>
+      </c>
+      <c r="I16">
+        <v>0.06819056770966213</v>
+      </c>
+      <c r="J16">
+        <v>0.06819056770966211</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6911273333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.073382</v>
+      </c>
+      <c r="O16">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="P16">
+        <v>0.1874588794338899</v>
+      </c>
+      <c r="Q16">
+        <v>0.9866886285606666</v>
+      </c>
+      <c r="R16">
+        <v>8.880197657046001</v>
+      </c>
+      <c r="S16">
+        <v>0.01278292741081406</v>
+      </c>
+      <c r="T16">
+        <v>0.01278292741081406</v>
       </c>
     </row>
   </sheetData>
